--- a/data/raw data/Regionalised CF.xlsx
+++ b/data/raw data/Regionalised CF.xlsx
@@ -2986,7 +2986,7 @@
   <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5482,7 +5482,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5515,8 +5515,8 @@
         <v>68</v>
       </c>
       <c r="B3" s="3">
-        <f>4.25*10^-3</f>
-        <v>4.2500000000000003E-3</v>
+        <f>AVERAGE('CF PM2.5'!D6:D64)</f>
+        <v>4.2456043515067083E-3</v>
       </c>
       <c r="C3" s="17">
         <v>4.8200000000000001E-4</v>
